--- a/biology/Botanique/Luzula_sylvatica/Luzula_sylvatica.xlsx
+++ b/biology/Botanique/Luzula_sylvatica/Luzula_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luzula sylvatica, la Luzule des bois ou Grande luzule, est une espèce végétale vivace forestière acidiphile, de la famille des Juncaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Juncus maximus Reichard, 1772
 Luzula maxima (Reichard) DC., 1805</t>
@@ -542,7 +556,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Français : Luzule des bois, grande luzule
 Néerlandais : Grote veldbies
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 août 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 août 2010) :
 Luzula sylvatica subsp. henriquesii (Degen) Pirajá (1951)
 Luzula sylvatica subsp. sicula (Parl.) K.Richt. (1890)
 Luzula sylvatica subsp. sieberi (Tausch) K.Richt. (1890)
@@ -609,9 +627,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est protégée en Île-de-France et dans le Nord-Pas-de-Calais[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est protégée en Île-de-France et dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
